--- a/results/mp/deberta/corona/confidence/168/stop-words-topk-0.2/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-topk-0.2/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="1008">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="1008">
   <si>
     <t>anchor score</t>
   </si>
@@ -343,580 +343,580 @@
     <t>credit</t>
   </si>
   <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>warns</t>
+  </si>
+  <si>
+    <t>chaos</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>surprise</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>blame</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>guidance</t>
+  </si>
+  <si>
+    <t>allow</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>donations</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>fda</t>
+  </si>
+  <si>
+    <t>started</t>
+  </si>
+  <si>
+    <t>helpful</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>mortgage</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>questions</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>worried</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>fine</t>
+  </si>
+  <si>
+    <t>inflated</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>epidemic</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>stimulus</t>
+  </si>
+  <si>
+    <t>countries</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>chinese</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>retailers</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>protection</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>everything</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>gloves</t>
+  </si>
+  <si>
+    <t>never</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>around</t>
+  </si>
+  <si>
+    <t>say</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>trump</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>take</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>lock</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>shock</t>
-  </si>
-  <si>
-    <t>warns</t>
-  </si>
-  <si>
-    <t>chaos</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>options</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>cancelled</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>surprise</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>blame</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>guidance</t>
-  </si>
-  <si>
-    <t>allow</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>donations</t>
-  </si>
-  <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>fda</t>
-  </si>
-  <si>
-    <t>started</t>
-  </si>
-  <si>
-    <t>helpful</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>mortgage</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>questions</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>fine</t>
-  </si>
-  <si>
-    <t>inflated</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>epidemic</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>critical</t>
-  </si>
-  <si>
-    <t>stimulus</t>
-  </si>
-  <si>
-    <t>countries</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>chinese</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>retailers</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>protection</t>
-  </si>
-  <si>
-    <t>global</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>everything</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>life</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>sales</t>
-  </si>
-  <si>
-    <t>gloves</t>
-  </si>
-  <si>
-    <t>never</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>around</t>
-  </si>
-  <si>
-    <t>say</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>companies</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>trump</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>take</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>lock</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>gift</t>
   </si>
   <si>
     <t>heroes</t>
@@ -3406,7 +3406,7 @@
         <v>105</v>
       </c>
       <c r="J1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3485,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K3">
         <v>0.9152542372881356</v>
@@ -3535,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K4">
         <v>0.8888888888888888</v>
@@ -3685,7 +3685,7 @@
         <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K7">
         <v>0.8582677165354331</v>
@@ -3835,7 +3835,7 @@
         <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K10">
         <v>0.8076923076923077</v>
@@ -3935,7 +3935,7 @@
         <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K12">
         <v>0.7777777777777778</v>
@@ -3985,7 +3985,7 @@
         <v>144</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K13">
         <v>0.740506329113924</v>
@@ -4035,7 +4035,7 @@
         <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K14">
         <v>0.7192982456140351</v>
@@ -4085,7 +4085,7 @@
         <v>5</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K15">
         <v>0.7142857142857143</v>
@@ -4135,28 +4135,28 @@
         <v>3</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="K16">
-        <v>0.6724137931034483</v>
+        <v>0.6633663366336634</v>
       </c>
       <c r="L16">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="M16">
-        <v>163</v>
+        <v>72</v>
       </c>
       <c r="N16">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="O16">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>76</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -4185,28 +4185,28 @@
         <v>6</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="K17">
-        <v>0.6633663366336634</v>
+        <v>0.6593406593406593</v>
       </c>
       <c r="L17">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="M17">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="N17">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="O17">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -4235,28 +4235,28 @@
         <v>3</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="K18">
-        <v>0.6593406593406593</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="L18">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="M18">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="N18">
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
       <c r="O18">
-        <v>0.05000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="P18" t="b">
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -4285,28 +4285,28 @@
         <v>19</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>51</v>
+        <v>297</v>
       </c>
       <c r="K19">
-        <v>0.6538461538461539</v>
+        <v>0.6527196652719666</v>
       </c>
       <c r="L19">
-        <v>17</v>
+        <v>156</v>
       </c>
       <c r="M19">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="N19">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -4385,7 +4385,7 @@
         <v>4</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K21">
         <v>0.631578947368421</v>
@@ -4435,7 +4435,7 @@
         <v>6</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K22">
         <v>0.6170212765957447</v>
@@ -4485,7 +4485,7 @@
         <v>5</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K23">
         <v>0.6142857142857143</v>
@@ -4535,7 +4535,7 @@
         <v>10</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K24">
         <v>0.6</v>
@@ -4635,28 +4635,28 @@
         <v>4</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>109</v>
+        <v>300</v>
       </c>
       <c r="K26">
-        <v>0.5688073394495413</v>
+        <v>0.5470588235294118</v>
       </c>
       <c r="L26">
         <v>186</v>
       </c>
       <c r="M26">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="N26">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>141</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -4735,7 +4735,7 @@
         <v>5</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K28">
         <v>0.5079365079365079</v>
@@ -4785,7 +4785,7 @@
         <v>11</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K29">
         <v>0.4942528735632184</v>
@@ -4885,7 +4885,7 @@
         <v>6</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K31">
         <v>0.4803149606299212</v>
@@ -4935,7 +4935,7 @@
         <v>9</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K32">
         <v>0.4652777777777778</v>
@@ -5385,7 +5385,7 @@
         <v>19</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K41">
         <v>0.4029850746268657</v>
@@ -5685,7 +5685,7 @@
         <v>5</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K47">
         <v>0.3888888888888889</v>
@@ -6385,7 +6385,7 @@
         <v>6</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K61">
         <v>0.3170731707317073</v>
@@ -6685,7 +6685,7 @@
         <v>18</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K67">
         <v>0.3043478260869565</v>
@@ -6785,7 +6785,7 @@
         <v>12</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K69">
         <v>0.2962962962962963</v>
@@ -7585,7 +7585,7 @@
         <v>8</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K85">
         <v>0.2692307692307692</v>
@@ -7685,7 +7685,7 @@
         <v>8</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K87">
         <v>0.2682926829268293</v>
@@ -7735,7 +7735,7 @@
         <v>34</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K88">
         <v>0.2666666666666667</v>
@@ -7885,7 +7885,7 @@
         <v>9</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K91">
         <v>0.2641509433962264</v>
@@ -7985,7 +7985,7 @@
         <v>10</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K93">
         <v>0.2535211267605634</v>
@@ -8514,28 +8514,28 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.08441558441558442</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C104">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D104">
-        <v>199</v>
+        <v>1</v>
       </c>
       <c r="E104">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H104">
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K104">
         <v>0.24</v>
@@ -8564,28 +8564,28 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.08433734939759036</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C105">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D105">
-        <v>163</v>
+        <v>1</v>
       </c>
       <c r="E105">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K105">
         <v>0.2352941176470588</v>
@@ -8635,7 +8635,7 @@
         <v>11</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K106">
         <v>0.2342995169082126</v>
@@ -8720,16 +8720,16 @@
         <v>1</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H108">
         <v>11</v>
@@ -8770,16 +8770,16 @@
         <v>1</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H109">
         <v>11</v>
@@ -8814,25 +8814,25 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.08333333333333333</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D110">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E110">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H110">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>359</v>
@@ -8864,25 +8864,25 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.08333333333333333</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D111">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E111">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H111">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>360</v>
@@ -8914,25 +8914,25 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.08108108108108109</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C112">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F112">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>361</v>
@@ -9020,16 +9020,16 @@
         <v>1</v>
       </c>
       <c r="D114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E114">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F114">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H114">
         <v>12</v>
@@ -9070,16 +9070,16 @@
         <v>2</v>
       </c>
       <c r="D115">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F115">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="G115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115">
         <v>24</v>
@@ -9114,13 +9114,13 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.07692307692307693</v>
+        <v>0.075</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D116">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -9132,7 +9132,7 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>365</v>
@@ -9164,25 +9164,25 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.07692307692307693</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="C117">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D117">
         <v>5</v>
       </c>
       <c r="E117">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="F117">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="G117" t="b">
         <v>1</v>
       </c>
       <c r="H117">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>366</v>
@@ -9214,13 +9214,13 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.075</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C118">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D118">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -9232,7 +9232,7 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>367</v>
@@ -9264,25 +9264,25 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.07407407407407407</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C119">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D119">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E119">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>368</v>
@@ -9320,16 +9320,16 @@
         <v>1</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F120">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H120">
         <v>13</v>
@@ -9367,22 +9367,22 @@
         <v>0.07142857142857142</v>
       </c>
       <c r="C121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D121">
         <v>2</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F121">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H121">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>370</v>
@@ -9420,13 +9420,13 @@
         <v>1</v>
       </c>
       <c r="D122">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E122">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F122">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G122" t="b">
         <v>1</v>
@@ -9464,25 +9464,25 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.07142857142857142</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D123">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E123">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="F123">
-        <v>0.5</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G123" t="b">
         <v>1</v>
       </c>
       <c r="H123">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>85</v>
@@ -9514,25 +9514,25 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.07142857142857142</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="C124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D124">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E124">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="F124">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="G124" t="b">
         <v>1</v>
       </c>
       <c r="H124">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>372</v>
@@ -9564,25 +9564,25 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.06976744186046512</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="C125">
+        <v>2</v>
+      </c>
+      <c r="D125">
         <v>3</v>
       </c>
-      <c r="D125">
-        <v>30</v>
-      </c>
       <c r="E125">
-        <v>0.9</v>
+        <v>0.33</v>
       </c>
       <c r="F125">
-        <v>0.09999999999999998</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G125" t="b">
         <v>1</v>
       </c>
       <c r="H125">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>373</v>
@@ -9614,25 +9614,25 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.06896551724137931</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D126">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E126">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F126">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G126" t="b">
         <v>1</v>
       </c>
       <c r="H126">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>374</v>
@@ -9664,25 +9664,25 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.06896551724137931</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D127">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E127">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="F127">
-        <v>0.6699999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="G127" t="b">
         <v>1</v>
       </c>
       <c r="H127">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>375</v>
@@ -9720,22 +9720,22 @@
         <v>1</v>
       </c>
       <c r="D128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E128">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H128">
         <v>14</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K128">
         <v>0.2173913043478261</v>
@@ -9785,7 +9785,7 @@
         <v>14</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K129">
         <v>0.2165605095541401</v>
@@ -9864,28 +9864,28 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.06666666666666667</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D131">
         <v>2</v>
       </c>
       <c r="E131">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F131">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H131">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K131">
         <v>0.2142857142857143</v>
@@ -9914,7 +9914,7 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -9932,7 +9932,7 @@
         <v>0</v>
       </c>
       <c r="H132">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>377</v>
@@ -9964,13 +9964,13 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.06451612903225806</v>
+        <v>0.0625</v>
       </c>
       <c r="C133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -9982,7 +9982,7 @@
         <v>0</v>
       </c>
       <c r="H133">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>378</v>
@@ -10020,16 +10020,16 @@
         <v>1</v>
       </c>
       <c r="D134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F134">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H134">
         <v>15</v>
@@ -10067,22 +10067,22 @@
         <v>0.0625</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D135">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="F135">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="G135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H135">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>380</v>
@@ -10114,25 +10114,25 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.0625</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="C136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D136">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E136">
-        <v>0.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F136">
-        <v>0.5</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G136" t="b">
         <v>1</v>
       </c>
       <c r="H136">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>381</v>
@@ -10164,25 +10164,25 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C137">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D137">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E137">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="F137">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="G137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H137">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>382</v>
@@ -10214,25 +10214,25 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.06060606060606061</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D138">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="E138">
-        <v>0.9399999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F138">
-        <v>0.06000000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="G138" t="b">
         <v>1</v>
       </c>
       <c r="H138">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>383</v>
@@ -10267,22 +10267,22 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="C139">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D139">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F139">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H139">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>384</v>
@@ -10370,16 +10370,16 @@
         <v>1</v>
       </c>
       <c r="D141">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="E141">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F141">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H141">
         <v>16</v>
@@ -10420,16 +10420,16 @@
         <v>1</v>
       </c>
       <c r="D142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E142">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F142">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H142">
         <v>16</v>
@@ -10470,16 +10470,16 @@
         <v>1</v>
       </c>
       <c r="D143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F143">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H143">
         <v>16</v>
@@ -10517,22 +10517,22 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="C144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D144">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="F144">
-        <v>1</v>
+        <v>0.22</v>
       </c>
       <c r="G144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H144">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>389</v>
@@ -10567,25 +10567,25 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="C145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D145">
         <v>2</v>
       </c>
       <c r="E145">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F145">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H145">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K145">
         <v>0.2</v>
@@ -10614,25 +10614,25 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.05882352941176471</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="C146">
         <v>2</v>
       </c>
       <c r="D146">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E146">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>0.22</v>
+        <v>1</v>
       </c>
       <c r="G146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H146">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>390</v>
@@ -10664,25 +10664,25 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D147">
         <v>2</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F147">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H147">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>391</v>
@@ -10714,13 +10714,13 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.05714285714285714</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -10732,7 +10732,7 @@
         <v>0</v>
       </c>
       <c r="H148">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>392</v>
@@ -10764,25 +10764,25 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
       <c r="D149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E149">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H149">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>393</v>
@@ -10814,7 +10814,7 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -10832,10 +10832,10 @@
         <v>0</v>
       </c>
       <c r="H150">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K150">
         <v>0.196969696969697</v>
@@ -10885,7 +10885,7 @@
         <v>18</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K151">
         <v>0.1951219512195122</v>
@@ -10920,16 +10920,16 @@
         <v>1</v>
       </c>
       <c r="D152">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F152">
-        <v>1</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H152">
         <v>18</v>
@@ -10970,16 +10970,16 @@
         <v>1</v>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F153">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H153">
         <v>18</v>
@@ -11020,13 +11020,13 @@
         <v>1</v>
       </c>
       <c r="D154">
-        <v>110</v>
+        <v>4</v>
       </c>
       <c r="E154">
-        <v>0.99</v>
+        <v>0.75</v>
       </c>
       <c r="F154">
-        <v>0.01000000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
@@ -11070,13 +11070,13 @@
         <v>1</v>
       </c>
       <c r="D155">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E155">
-        <v>0.83</v>
+        <v>0.97</v>
       </c>
       <c r="F155">
-        <v>0.17</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
@@ -11114,25 +11114,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C156">
         <v>1</v>
       </c>
       <c r="D156">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E156">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F156">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>398</v>
@@ -11164,25 +11164,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
       <c r="D157">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E157">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
       <c r="F157">
-        <v>0.03000000000000003</v>
+        <v>0.12</v>
       </c>
       <c r="G157" t="b">
         <v>1</v>
       </c>
       <c r="H157">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>399</v>
@@ -11220,13 +11220,13 @@
         <v>1</v>
       </c>
       <c r="D158">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E158">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="F158">
-        <v>0.33</v>
+        <v>0.14</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
@@ -11270,13 +11270,13 @@
         <v>1</v>
       </c>
       <c r="D159">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E159">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="F159">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
@@ -11285,7 +11285,7 @@
         <v>19</v>
       </c>
       <c r="J159" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K159">
         <v>0.189873417721519</v>
@@ -11314,25 +11314,25 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C160">
         <v>1</v>
       </c>
       <c r="D160">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E160">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="F160">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>401</v>
@@ -11364,25 +11364,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
       <c r="D161">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E161">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="F161">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>402</v>
@@ -11414,25 +11414,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.04761904761904762</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="C162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D162">
-        <v>4</v>
+        <v>119</v>
       </c>
       <c r="E162">
-        <v>0.75</v>
+        <v>0.98</v>
       </c>
       <c r="F162">
-        <v>0.25</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>403</v>
@@ -11464,25 +11464,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D163">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E163">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="F163">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>404</v>
@@ -11514,25 +11514,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.04651162790697674</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C164">
         <v>2</v>
       </c>
       <c r="D164">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="E164">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="F164">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>405</v>
@@ -11564,25 +11564,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D165">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E165">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H165">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>406</v>
@@ -11617,22 +11617,22 @@
         <v>0.04347826086956522</v>
       </c>
       <c r="C166">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D166">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="E166">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F166">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>44</v>
+        <v>154</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>407</v>
@@ -11664,25 +11664,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F167">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H167">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>408</v>
@@ -11714,25 +11714,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C168">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D168">
-        <v>141</v>
+        <v>6</v>
       </c>
       <c r="E168">
-        <v>0.95</v>
+        <v>0.83</v>
       </c>
       <c r="F168">
-        <v>0.05000000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>154</v>
+        <v>23</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>409</v>
@@ -11770,13 +11770,13 @@
         <v>1</v>
       </c>
       <c r="D169">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E169">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F169">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
@@ -11814,25 +11814,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
       <c r="D170">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E170">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="F170">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>411</v>
@@ -11864,25 +11864,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
       <c r="D171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E171">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F171">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H171">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>412</v>
@@ -11914,25 +11914,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.04</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D172">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E172">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="F172">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>413</v>
@@ -11964,25 +11964,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
       <c r="D173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F173">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H173">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>414</v>
@@ -12014,28 +12014,28 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.0392156862745098</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D174">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E174">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="F174">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K174">
         <v>0.1794871794871795</v>
@@ -12070,22 +12070,22 @@
         <v>1</v>
       </c>
       <c r="D175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E175">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F175">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H175">
         <v>25</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K175">
         <v>0.1785714285714286</v>
@@ -12114,25 +12114,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E176">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F176">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H176">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>415</v>
@@ -12164,25 +12164,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
       <c r="D177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F177">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H177">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>416</v>
@@ -12214,25 +12214,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.03703703703703703</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="C178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D178">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F178">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H178">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>417</v>
@@ -12264,25 +12264,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D179">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="E179">
-        <v>0.5</v>
+        <v>0.98</v>
       </c>
       <c r="F179">
-        <v>0.5</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>418</v>
@@ -12314,25 +12314,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.03636363636363636</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D180">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E180">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="F180">
-        <v>0.09999999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>419</v>
@@ -12364,25 +12364,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.03571428571428571</v>
+        <v>0.03529411764705882</v>
       </c>
       <c r="C181">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D181">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="E181">
-        <v>0.98</v>
+        <v>0.8</v>
       </c>
       <c r="F181">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>420</v>
@@ -12414,25 +12414,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.03571428571428571</v>
+        <v>0.03508771929824561</v>
       </c>
       <c r="C182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D182">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E182">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="F182">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>421</v>
@@ -12464,25 +12464,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.03529411764705882</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C183">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D183">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E183">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="F183">
-        <v>0.2</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>422</v>
@@ -12514,25 +12514,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.03508771929824561</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D184">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E184">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F184">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H184">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>423</v>
@@ -12564,25 +12564,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.03448275862068965</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C185">
         <v>1</v>
       </c>
       <c r="D185">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E185">
-        <v>0.93</v>
+        <v>0.67</v>
       </c>
       <c r="F185">
-        <v>0.06999999999999995</v>
+        <v>0.33</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>424</v>
@@ -12614,28 +12614,28 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.03448275862068965</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
       <c r="D186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F186">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H186">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J186" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K186">
         <v>0.1666666666666667</v>
@@ -12664,25 +12664,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.03225806451612903</v>
+        <v>0.03125</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E187">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F187">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H187">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>425</v>
@@ -12714,25 +12714,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.03225806451612903</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E188">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="F188">
-        <v>0.5</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>426</v>
@@ -12764,25 +12764,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.03125</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F189">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H189">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>427</v>
@@ -12814,25 +12814,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.0303030303030303</v>
+        <v>0.02898550724637681</v>
       </c>
       <c r="C190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D190">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E190">
-        <v>0.93</v>
+        <v>0.83</v>
       </c>
       <c r="F190">
-        <v>0.06999999999999995</v>
+        <v>0.17</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>428</v>
@@ -12864,25 +12864,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.02941176470588235</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E191">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="F191">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>429</v>
@@ -12914,25 +12914,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.02898550724637681</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D192">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E192">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="F192">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>430</v>
@@ -12970,22 +12970,22 @@
         <v>1</v>
       </c>
       <c r="D193">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E193">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F193">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H193">
         <v>34</v>
       </c>
       <c r="J193" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K193">
         <v>0.1666666666666667</v>
@@ -13014,25 +13014,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.02857142857142857</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E194">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F194">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H194">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>431</v>
@@ -13064,13 +13064,13 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.02857142857142857</v>
+        <v>0.02684563758389262</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D195">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E195">
         <v>0</v>
@@ -13082,7 +13082,7 @@
         <v>0</v>
       </c>
       <c r="H195">
-        <v>34</v>
+        <v>145</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>432</v>
@@ -13114,25 +13114,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.02777777777777778</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="C196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D196">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F196">
-        <v>1</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H196">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>433</v>
@@ -13164,13 +13164,13 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.02684563758389262</v>
+        <v>0.02597402597402598</v>
       </c>
       <c r="C197">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D197">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E197">
         <v>0</v>
@@ -13182,7 +13182,7 @@
         <v>0</v>
       </c>
       <c r="H197">
-        <v>145</v>
+        <v>75</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>434</v>
@@ -13214,25 +13214,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.02666666666666667</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D198">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E198">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="F198">
-        <v>0.6699999999999999</v>
+        <v>1</v>
       </c>
       <c r="G198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H198">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>435</v>
@@ -13264,13 +13264,13 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.02597402597402598</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E199">
         <v>0</v>
@@ -13282,7 +13282,7 @@
         <v>0</v>
       </c>
       <c r="H199">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>436</v>
@@ -13314,25 +13314,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.02564102564102564</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="C200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D200">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F200">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H200">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>437</v>
@@ -13364,7 +13364,7 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.02564102564102564</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C201">
         <v>1</v>
@@ -13382,7 +13382,7 @@
         <v>0</v>
       </c>
       <c r="H201">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>438</v>
@@ -13414,13 +13414,13 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.02469135802469136</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C202">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D202">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E202">
         <v>0.8</v>
@@ -13432,7 +13432,7 @@
         <v>1</v>
       </c>
       <c r="H202">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>439</v>
@@ -13464,25 +13464,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.02439024390243903</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F203">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H203">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>440</v>
@@ -13514,25 +13514,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.02439024390243903</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E204">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="F204">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>441</v>
@@ -13614,25 +13614,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.02380952380952381</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E206">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F206">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H206">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>443</v>
@@ -13664,25 +13664,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.02380952380952381</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E207">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F207">
-        <v>0.25</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>444</v>
@@ -13764,25 +13764,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.02222222222222222</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="C209">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D209">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E209">
-        <v>0.9399999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="F209">
-        <v>0.06000000000000005</v>
+        <v>0.29</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>446</v>
@@ -13814,25 +13814,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.02222222222222222</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
       <c r="D210">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E210">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F210">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H210">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>447</v>
@@ -13864,25 +13864,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.02197802197802198</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C211">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D211">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E211">
-        <v>0.71</v>
+        <v>0.8</v>
       </c>
       <c r="F211">
-        <v>0.29</v>
+        <v>0.2</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>448</v>
@@ -13914,25 +13914,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.02173913043478261</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
       <c r="D212">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E212">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="F212">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>449</v>
@@ -13964,25 +13964,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.02173913043478261</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="C213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D213">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E213">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="F213">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>450</v>
@@ -14014,25 +14014,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.02127659574468085</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E214">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F214">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>451</v>
@@ -14064,25 +14064,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.0198019801980198</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D215">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E215">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="F215">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>452</v>
@@ -14114,25 +14114,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.0196078431372549</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="C216">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D216">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="E216">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="F216">
-        <v>0.17</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>50</v>
+        <v>156</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>453</v>
@@ -14164,25 +14164,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.01923076923076923</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E217">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="F217">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>454</v>
@@ -14217,25 +14217,25 @@
         <v>0.01886792452830189</v>
       </c>
       <c r="C218">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D218">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="E218">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F218">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>156</v>
+        <v>52</v>
       </c>
       <c r="J218" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K218">
         <v>0.1612903225806452</v>
@@ -14264,25 +14264,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.01886792452830189</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E219">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="F219">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>455</v>
@@ -14314,25 +14314,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.01886792452830189</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E220">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F220">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G220" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H220">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>456</v>
@@ -14364,25 +14364,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.01724137931034483</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E221">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="F221">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>457</v>
@@ -14414,25 +14414,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.01694915254237288</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F222">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G222" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H222">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>458</v>
@@ -14464,25 +14464,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.01666666666666667</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E223">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="F223">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>459</v>
@@ -14514,25 +14514,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.01639344262295082</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E224">
-        <v>0.8</v>
+        <v>0.91</v>
       </c>
       <c r="F224">
-        <v>0.2</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>460</v>
@@ -14564,25 +14564,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.01639344262295082</v>
+        <v>0.016</v>
       </c>
       <c r="C225">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D225">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="E225">
-        <v>0.83</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F225">
-        <v>0.17</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>461</v>
@@ -14614,25 +14614,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.01612903225806452</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E226">
-        <v>0.91</v>
+        <v>0.8</v>
       </c>
       <c r="F226">
-        <v>0.08999999999999997</v>
+        <v>0.2</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>462</v>
@@ -14664,25 +14664,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.016</v>
+        <v>0.015625</v>
       </c>
       <c r="C227">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D227">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="E227">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="F227">
-        <v>0.06000000000000005</v>
+        <v>0.11</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>123</v>
+        <v>63</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>7</v>
@@ -14714,25 +14714,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.01587301587301587</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E228">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F228">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G228" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H228">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>463</v>
@@ -14764,28 +14764,28 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.015625</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
       <c r="D229">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E229">
-        <v>0.89</v>
+        <v>0.67</v>
       </c>
       <c r="F229">
-        <v>0.11</v>
+        <v>0.33</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J229" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K229">
         <v>0.1538461538461539</v>
@@ -14814,28 +14814,28 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.01470588235294118</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F230">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G230" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H230">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J230" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K230">
         <v>0.1538461538461539</v>
@@ -14864,25 +14864,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.01470588235294118</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E231">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="F231">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>464</v>
@@ -14914,25 +14914,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.01449275362318841</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E232">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="F232">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>465</v>
@@ -14964,25 +14964,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.01428571428571429</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
       <c r="D233">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E233">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F233">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>466</v>
@@ -15014,25 +15014,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.01428571428571429</v>
+        <v>0.01398601398601399</v>
       </c>
       <c r="C234">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D234">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="E234">
-        <v>0.8</v>
+        <v>0.91</v>
       </c>
       <c r="F234">
-        <v>0.2</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>69</v>
+        <v>282</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>467</v>
@@ -15064,25 +15064,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.01408450704225352</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E235">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F235">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>468</v>
@@ -15114,25 +15114,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.01398601398601399</v>
+        <v>0.01286173633440514</v>
       </c>
       <c r="C236">
         <v>4</v>
       </c>
       <c r="D236">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E236">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F236">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>469</v>
@@ -15164,25 +15164,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.0131578947368421</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E237">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F237">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>470</v>
@@ -15214,25 +15214,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.01286173633440514</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="C238">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D238">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="E238">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="F238">
-        <v>0.09999999999999998</v>
+        <v>0.2</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>307</v>
+        <v>77</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>471</v>
@@ -15264,25 +15264,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.01282051282051282</v>
+        <v>0.0125</v>
       </c>
       <c r="C239">
         <v>1</v>
       </c>
       <c r="D239">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E239">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F239">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G239" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H239">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>472</v>
@@ -15314,25 +15314,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.01282051282051282</v>
+        <v>0.01246105919003115</v>
       </c>
       <c r="C240">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D240">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="E240">
-        <v>0.8</v>
+        <v>0.96</v>
       </c>
       <c r="F240">
-        <v>0.2</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>77</v>
+        <v>317</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>473</v>
@@ -15364,25 +15364,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.0125</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="C241">
         <v>1</v>
       </c>
       <c r="D241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E241">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F241">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G241" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H241">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>474</v>
@@ -15414,25 +15414,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.01246105919003115</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="C242">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D242">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="E242">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F242">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>317</v>
+        <v>84</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>475</v>
@@ -15464,25 +15464,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.01234567901234568</v>
+        <v>0.01149425287356322</v>
       </c>
       <c r="C243">
         <v>1</v>
       </c>
       <c r="D243">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E243">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="F243">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>476</v>
@@ -15514,25 +15514,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.01176470588235294</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="C244">
         <v>1</v>
       </c>
       <c r="D244">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E244">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="F244">
-        <v>0.06999999999999995</v>
+        <v>0.12</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>477</v>
@@ -15564,25 +15564,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.01149425287356322</v>
+        <v>0.0106951871657754</v>
       </c>
       <c r="C245">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D245">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E245">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="F245">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G245" t="b">
         <v>1</v>
       </c>
       <c r="H245">
-        <v>86</v>
+        <v>185</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>478</v>
@@ -15614,25 +15614,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.0108695652173913</v>
+        <v>0.01063829787234043</v>
       </c>
       <c r="C246">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D246">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E246">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="F246">
-        <v>0.12</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G246" t="b">
         <v>1</v>
       </c>
       <c r="H246">
-        <v>91</v>
+        <v>186</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>479</v>
@@ -15664,25 +15664,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.0106951871657754</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="C247">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D247">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E247">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
       <c r="F247">
-        <v>0.5</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G247" t="b">
         <v>1</v>
       </c>
       <c r="H247">
-        <v>185</v>
+        <v>96</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>480</v>
@@ -15714,25 +15714,25 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.01063829787234043</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="C248">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D248">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E248">
-        <v>0.93</v>
+        <v>0.75</v>
       </c>
       <c r="F248">
-        <v>0.06999999999999995</v>
+        <v>0.25</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
       </c>
       <c r="H248">
-        <v>186</v>
+        <v>96</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>481</v>
@@ -15764,25 +15764,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.01030927835051546</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="C249">
         <v>1</v>
       </c>
       <c r="D249">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E249">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="F249">
-        <v>0.07999999999999996</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>482</v>
@@ -15814,25 +15814,25 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.01030927835051546</v>
+        <v>0.01</v>
       </c>
       <c r="C250">
         <v>1</v>
       </c>
       <c r="D250">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E250">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="F250">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
       <c r="G250" t="b">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>483</v>
@@ -15864,25 +15864,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.01020408163265306</v>
+        <v>0.01</v>
       </c>
       <c r="C251">
         <v>1</v>
       </c>
       <c r="D251">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E251">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="F251">
-        <v>0.06999999999999995</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
       </c>
       <c r="H251">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>484</v>
@@ -15917,22 +15917,22 @@
         <v>0.01</v>
       </c>
       <c r="C252">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D252">
-        <v>7</v>
+        <v>185</v>
       </c>
       <c r="E252">
-        <v>0.86</v>
+        <v>0.99</v>
       </c>
       <c r="F252">
-        <v>0.14</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>485</v>
@@ -15964,25 +15964,25 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.01</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="C253">
         <v>1</v>
       </c>
       <c r="D253">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E253">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="F253">
-        <v>0.09999999999999998</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G253" t="b">
         <v>1</v>
       </c>
       <c r="H253">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>486</v>
@@ -16014,28 +16014,28 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.01</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="C254">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D254">
-        <v>185</v>
+        <v>3</v>
       </c>
       <c r="E254">
-        <v>0.99</v>
+        <v>0.67</v>
       </c>
       <c r="F254">
-        <v>0.01000000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="G254" t="b">
         <v>1</v>
       </c>
       <c r="H254">
-        <v>198</v>
+        <v>105</v>
       </c>
       <c r="J254" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K254">
         <v>0.1428571428571428</v>
@@ -16064,25 +16064,25 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.009523809523809525</v>
+        <v>0.009345794392523364</v>
       </c>
       <c r="C255">
         <v>1</v>
       </c>
       <c r="D255">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E255">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F255">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G255" t="b">
         <v>1</v>
       </c>
       <c r="H255">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>487</v>
@@ -16114,25 +16114,25 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.009433962264150943</v>
+        <v>0.009302325581395349</v>
       </c>
       <c r="C256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D256">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E256">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="F256">
-        <v>0.33</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G256" t="b">
         <v>1</v>
       </c>
       <c r="H256">
-        <v>105</v>
+        <v>213</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>488</v>
@@ -16164,25 +16164,25 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.009345794392523364</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="C257">
         <v>1</v>
       </c>
       <c r="D257">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E257">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F257">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G257" t="b">
         <v>1</v>
       </c>
       <c r="H257">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>489</v>
@@ -16214,25 +16214,25 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.009302325581395349</v>
+        <v>0.009009009009009009</v>
       </c>
       <c r="C258">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D258">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E258">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F258">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G258" t="b">
         <v>1</v>
       </c>
       <c r="H258">
-        <v>213</v>
+        <v>110</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>490</v>
@@ -16264,25 +16264,25 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.00909090909090909</v>
+        <v>0.008928571428571428</v>
       </c>
       <c r="C259">
         <v>1</v>
       </c>
       <c r="D259">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E259">
-        <v>0.9399999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F259">
-        <v>0.06000000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="G259" t="b">
         <v>1</v>
       </c>
       <c r="H259">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>491</v>
@@ -16314,25 +16314,25 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.009009009009009009</v>
+        <v>0.008474576271186441</v>
       </c>
       <c r="C260">
         <v>1</v>
       </c>
       <c r="D260">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E260">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="F260">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G260" t="b">
         <v>1</v>
       </c>
       <c r="H260">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>492</v>
@@ -16364,25 +16364,25 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>0.008928571428571428</v>
+        <v>0.008474576271186441</v>
       </c>
       <c r="C261">
         <v>1</v>
       </c>
       <c r="D261">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E261">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
       <c r="F261">
-        <v>0.25</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G261" t="b">
         <v>1</v>
       </c>
       <c r="H261">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>493</v>
@@ -16414,25 +16414,25 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.008474576271186441</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="C262">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D262">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E262">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F262">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G262" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H262">
-        <v>117</v>
+        <v>250</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>494</v>
@@ -16464,25 +16464,25 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.008474576271186441</v>
+        <v>0.0078125</v>
       </c>
       <c r="C263">
         <v>1</v>
       </c>
       <c r="D263">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E263">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F263">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G263" t="b">
         <v>1</v>
       </c>
       <c r="H263">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>495</v>
@@ -16514,25 +16514,25 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.007936507936507936</v>
+        <v>0.007751937984496124</v>
       </c>
       <c r="C264">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D264">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="E264">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F264">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G264" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H264">
-        <v>250</v>
+        <v>128</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>496</v>
@@ -16564,25 +16564,25 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>0.0078125</v>
+        <v>0.007407407407407408</v>
       </c>
       <c r="C265">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D265">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E265">
-        <v>0.9</v>
+        <v>0.77</v>
       </c>
       <c r="F265">
-        <v>0.09999999999999998</v>
+        <v>0.23</v>
       </c>
       <c r="G265" t="b">
         <v>1</v>
       </c>
       <c r="H265">
-        <v>127</v>
+        <v>938</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>497</v>
@@ -16614,25 +16614,25 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>0.007751937984496124</v>
+        <v>0.007345225603357817</v>
       </c>
       <c r="C266">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D266">
-        <v>31</v>
+        <v>251</v>
       </c>
       <c r="E266">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F266">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G266" t="b">
         <v>1</v>
       </c>
       <c r="H266">
-        <v>128</v>
+        <v>1892</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>498</v>
@@ -16664,25 +16664,25 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>0.007407407407407408</v>
+        <v>0.006896551724137931</v>
       </c>
       <c r="C267">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D267">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E267">
-        <v>0.77</v>
+        <v>0.6</v>
       </c>
       <c r="F267">
-        <v>0.23</v>
+        <v>0.4</v>
       </c>
       <c r="G267" t="b">
         <v>1</v>
       </c>
       <c r="H267">
-        <v>938</v>
+        <v>288</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>499</v>
@@ -16714,28 +16714,28 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>0.007345225603357817</v>
+        <v>0.006329113924050633</v>
       </c>
       <c r="C268">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D268">
-        <v>251</v>
+        <v>7</v>
       </c>
       <c r="E268">
-        <v>0.9399999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="F268">
-        <v>0.06000000000000005</v>
+        <v>0.14</v>
       </c>
       <c r="G268" t="b">
         <v>1</v>
       </c>
       <c r="H268">
-        <v>1892</v>
+        <v>157</v>
       </c>
       <c r="J268" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K268">
         <v>0.1408450704225352</v>
@@ -16764,28 +16764,28 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>0.006896551724137931</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="C269">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D269">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E269">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F269">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="G269" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H269">
-        <v>288</v>
+        <v>165</v>
       </c>
       <c r="J269" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K269">
         <v>0.1400966183574879</v>
@@ -16814,25 +16814,25 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>0.006329113924050633</v>
+        <v>0.005988023952095809</v>
       </c>
       <c r="C270">
         <v>1</v>
       </c>
       <c r="D270">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E270">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F270">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G270" t="b">
         <v>1</v>
       </c>
       <c r="H270">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>500</v>
@@ -16864,25 +16864,25 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>0.006024096385542169</v>
+        <v>0.005628517823639775</v>
       </c>
       <c r="C271">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D271">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E271">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F271">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G271" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H271">
-        <v>165</v>
+        <v>530</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>501</v>
@@ -16914,28 +16914,28 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>0.005988023952095809</v>
+        <v>0.00558659217877095</v>
       </c>
       <c r="C272">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D272">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="E272">
-        <v>0.8</v>
+        <v>0.97</v>
       </c>
       <c r="F272">
-        <v>0.2</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G272" t="b">
         <v>1</v>
       </c>
       <c r="H272">
-        <v>166</v>
+        <v>356</v>
       </c>
       <c r="J272" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K272">
         <v>0.1349206349206349</v>
@@ -16964,25 +16964,25 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>0.005628517823639775</v>
+        <v>0.005405405405405406</v>
       </c>
       <c r="C273">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D273">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E273">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F273">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G273" t="b">
         <v>1</v>
       </c>
       <c r="H273">
-        <v>530</v>
+        <v>184</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>502</v>
@@ -17014,28 +17014,28 @@
         <v>279</v>
       </c>
       <c r="B274">
-        <v>0.00558659217877095</v>
+        <v>0.005037783375314861</v>
       </c>
       <c r="C274">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D274">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="E274">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F274">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G274" t="b">
         <v>1</v>
       </c>
       <c r="H274">
-        <v>356</v>
+        <v>790</v>
       </c>
       <c r="J274" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K274">
         <v>0.134020618556701</v>
@@ -17064,25 +17064,25 @@
         <v>280</v>
       </c>
       <c r="B275">
-        <v>0.005405405405405406</v>
+        <v>0.004784688995215311</v>
       </c>
       <c r="C275">
         <v>1</v>
       </c>
       <c r="D275">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E275">
-        <v>0.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F275">
-        <v>0.5</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G275" t="b">
         <v>1</v>
       </c>
       <c r="H275">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>503</v>
@@ -17114,25 +17114,25 @@
         <v>281</v>
       </c>
       <c r="B276">
-        <v>0.005037783375314861</v>
+        <v>0.004293381037567084</v>
       </c>
       <c r="C276">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D276">
-        <v>77</v>
+        <v>324</v>
       </c>
       <c r="E276">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F276">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G276" t="b">
         <v>1</v>
       </c>
       <c r="H276">
-        <v>790</v>
+        <v>2783</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>504</v>
@@ -17164,25 +17164,25 @@
         <v>282</v>
       </c>
       <c r="B277">
-        <v>0.004784688995215311</v>
+        <v>0.004132231404958678</v>
       </c>
       <c r="C277">
         <v>1</v>
       </c>
       <c r="D277">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E277">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F277">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G277" t="b">
         <v>1</v>
       </c>
       <c r="H277">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>505</v>
@@ -17214,25 +17214,25 @@
         <v>283</v>
       </c>
       <c r="B278">
-        <v>0.004293381037567084</v>
+        <v>0.003773584905660377</v>
       </c>
       <c r="C278">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D278">
-        <v>324</v>
+        <v>17</v>
       </c>
       <c r="E278">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F278">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G278" t="b">
         <v>1</v>
       </c>
       <c r="H278">
-        <v>2783</v>
+        <v>264</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>506</v>
@@ -17264,25 +17264,25 @@
         <v>284</v>
       </c>
       <c r="B279">
-        <v>0.004132231404958678</v>
+        <v>0.003424657534246575</v>
       </c>
       <c r="C279">
         <v>1</v>
       </c>
       <c r="D279">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E279">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F279">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G279" t="b">
         <v>1</v>
       </c>
       <c r="H279">
-        <v>241</v>
+        <v>291</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>507</v>
@@ -17314,25 +17314,25 @@
         <v>285</v>
       </c>
       <c r="B280">
-        <v>0.003773584905660377</v>
+        <v>0.00338409475465313</v>
       </c>
       <c r="C280">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D280">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="E280">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F280">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G280" t="b">
         <v>1</v>
       </c>
       <c r="H280">
-        <v>264</v>
+        <v>589</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>508</v>
@@ -17364,25 +17364,25 @@
         <v>286</v>
       </c>
       <c r="B281">
-        <v>0.003424657534246575</v>
+        <v>0.003038487508440243</v>
       </c>
       <c r="C281">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D281">
-        <v>17</v>
+        <v>248</v>
       </c>
       <c r="E281">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F281">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G281" t="b">
         <v>1</v>
       </c>
       <c r="H281">
-        <v>291</v>
+        <v>2953</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>509</v>
@@ -17414,25 +17414,25 @@
         <v>287</v>
       </c>
       <c r="B282">
-        <v>0.00338409475465313</v>
+        <v>0.002840909090909091</v>
       </c>
       <c r="C282">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D282">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="E282">
-        <v>0.97</v>
+        <v>0.89</v>
       </c>
       <c r="F282">
-        <v>0.03000000000000003</v>
+        <v>0.11</v>
       </c>
       <c r="G282" t="b">
         <v>1</v>
       </c>
       <c r="H282">
-        <v>589</v>
+        <v>351</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>510</v>
@@ -17464,25 +17464,25 @@
         <v>288</v>
       </c>
       <c r="B283">
-        <v>0.003038487508440243</v>
+        <v>0.0025</v>
       </c>
       <c r="C283">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D283">
-        <v>248</v>
+        <v>103</v>
       </c>
       <c r="E283">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F283">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G283" t="b">
         <v>1</v>
       </c>
       <c r="H283">
-        <v>2953</v>
+        <v>798</v>
       </c>
       <c r="J283" s="1" t="s">
         <v>511</v>
@@ -17514,28 +17514,28 @@
         <v>289</v>
       </c>
       <c r="B284">
-        <v>0.002840909090909091</v>
+        <v>0.001890359168241966</v>
       </c>
       <c r="C284">
         <v>1</v>
       </c>
       <c r="D284">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E284">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="F284">
-        <v>0.11</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G284" t="b">
         <v>1</v>
       </c>
       <c r="H284">
-        <v>351</v>
+        <v>528</v>
       </c>
       <c r="J284" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K284">
         <v>0.1304347826086956</v>
@@ -17564,25 +17564,25 @@
         <v>290</v>
       </c>
       <c r="B285">
-        <v>0.0025</v>
+        <v>0.001823154056517776</v>
       </c>
       <c r="C285">
         <v>2</v>
       </c>
       <c r="D285">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="E285">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F285">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G285" t="b">
         <v>1</v>
       </c>
       <c r="H285">
-        <v>798</v>
+        <v>1095</v>
       </c>
       <c r="J285" s="1" t="s">
         <v>512</v>
@@ -17614,28 +17614,28 @@
         <v>291</v>
       </c>
       <c r="B286">
-        <v>0.001890359168241966</v>
+        <v>0.001282051282051282</v>
       </c>
       <c r="C286">
         <v>1</v>
       </c>
       <c r="D286">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="E286">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F286">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G286" t="b">
         <v>1</v>
       </c>
       <c r="H286">
-        <v>528</v>
+        <v>779</v>
       </c>
       <c r="J286" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K286">
         <v>0.1298701298701299</v>
@@ -17660,30 +17660,6 @@
       </c>
     </row>
     <row r="287" spans="1:17">
-      <c r="A287" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B287">
-        <v>0.001823154056517776</v>
-      </c>
-      <c r="C287">
-        <v>2</v>
-      </c>
-      <c r="D287">
-        <v>66</v>
-      </c>
-      <c r="E287">
-        <v>0.97</v>
-      </c>
-      <c r="F287">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="G287" t="b">
-        <v>1</v>
-      </c>
-      <c r="H287">
-        <v>1095</v>
-      </c>
       <c r="J287" s="1" t="s">
         <v>513</v>
       </c>
@@ -17710,32 +17686,8 @@
       </c>
     </row>
     <row r="288" spans="1:17">
-      <c r="A288" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B288">
-        <v>0.001282051282051282</v>
-      </c>
-      <c r="C288">
-        <v>1</v>
-      </c>
-      <c r="D288">
-        <v>115</v>
-      </c>
-      <c r="E288">
-        <v>0.99</v>
-      </c>
-      <c r="F288">
-        <v>0.01000000000000001</v>
-      </c>
-      <c r="G288" t="b">
-        <v>1</v>
-      </c>
-      <c r="H288">
-        <v>779</v>
-      </c>
       <c r="J288" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K288">
         <v>0.1290322580645161</v>
@@ -17787,7 +17739,7 @@
     </row>
     <row r="290" spans="10:17">
       <c r="J290" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K290">
         <v>0.1276595744680851</v>
@@ -17813,7 +17765,7 @@
     </row>
     <row r="291" spans="10:17">
       <c r="J291" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K291">
         <v>0.1276595744680851</v>
@@ -17839,7 +17791,7 @@
     </row>
     <row r="292" spans="10:17">
       <c r="J292" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K292">
         <v>0.1276595744680851</v>
@@ -17865,7 +17817,7 @@
     </row>
     <row r="293" spans="10:17">
       <c r="J293" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K293">
         <v>0.1269349845201238</v>
@@ -17891,7 +17843,7 @@
     </row>
     <row r="294" spans="10:17">
       <c r="J294" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K294">
         <v>0.1267605633802817</v>
@@ -17917,7 +17869,7 @@
     </row>
     <row r="295" spans="10:17">
       <c r="J295" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K295">
         <v>0.1261261261261261</v>
@@ -18983,7 +18935,7 @@
     </row>
     <row r="336" spans="10:17">
       <c r="J336" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K336">
         <v>0.1186440677966102</v>
@@ -19165,7 +19117,7 @@
     </row>
     <row r="343" spans="10:17">
       <c r="J343" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K343">
         <v>0.1153846153846154</v>
@@ -19269,7 +19221,7 @@
     </row>
     <row r="347" spans="10:17">
       <c r="J347" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K347">
         <v>0.1126760563380282</v>
@@ -19295,7 +19247,7 @@
     </row>
     <row r="348" spans="10:17">
       <c r="J348" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K348">
         <v>0.1123470522803115</v>
@@ -19321,7 +19273,7 @@
     </row>
     <row r="349" spans="10:17">
       <c r="J349" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K349">
         <v>0.1113198684828558</v>
@@ -19399,7 +19351,7 @@
     </row>
     <row r="352" spans="10:17">
       <c r="J352" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K352">
         <v>0.1111111111111111</v>
@@ -19451,7 +19403,7 @@
     </row>
     <row r="354" spans="10:17">
       <c r="J354" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K354">
         <v>0.1111111111111111</v>
@@ -20075,7 +20027,7 @@
     </row>
     <row r="378" spans="10:17">
       <c r="J378" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K378">
         <v>0.1101449275362319</v>
@@ -20101,7 +20053,7 @@
     </row>
     <row r="379" spans="10:17">
       <c r="J379" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K379">
         <v>0.1090909090909091</v>
@@ -20257,7 +20209,7 @@
     </row>
     <row r="385" spans="10:17">
       <c r="J385" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K385">
         <v>0.1052631578947368</v>
@@ -20309,7 +20261,7 @@
     </row>
     <row r="387" spans="10:17">
       <c r="J387" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K387">
         <v>0.1052631578947368</v>
@@ -20439,7 +20391,7 @@
     </row>
     <row r="392" spans="10:17">
       <c r="J392" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K392">
         <v>0.1008077544426494</v>
@@ -20517,7 +20469,7 @@
     </row>
     <row r="395" spans="10:17">
       <c r="J395" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K395">
         <v>0.1</v>
@@ -21505,7 +21457,7 @@
     </row>
     <row r="433" spans="10:17">
       <c r="J433" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K433">
         <v>0.09523809523809523</v>
@@ -21583,7 +21535,7 @@
     </row>
     <row r="436" spans="10:17">
       <c r="J436" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K436">
         <v>0.09398496240601503</v>
@@ -21609,7 +21561,7 @@
     </row>
     <row r="437" spans="10:17">
       <c r="J437" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K437">
         <v>0.09361702127659574</v>
@@ -21635,7 +21587,7 @@
     </row>
     <row r="438" spans="10:17">
       <c r="J438" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K438">
         <v>0.09333333333333334</v>
@@ -21687,7 +21639,7 @@
     </row>
     <row r="440" spans="10:17">
       <c r="J440" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K440">
         <v>0.09195402298850575</v>
@@ -21713,7 +21665,7 @@
     </row>
     <row r="441" spans="10:17">
       <c r="J441" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K441">
         <v>0.09104938271604938</v>
@@ -21765,7 +21717,7 @@
     </row>
     <row r="443" spans="10:17">
       <c r="J443" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K443">
         <v>0.09090909090909091</v>
@@ -21973,7 +21925,7 @@
     </row>
     <row r="451" spans="10:17">
       <c r="J451" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K451">
         <v>0.09090909090909091</v>
@@ -22701,7 +22653,7 @@
     </row>
     <row r="479" spans="10:17">
       <c r="J479" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K479">
         <v>0.08695652173913043</v>
@@ -22831,7 +22783,7 @@
     </row>
     <row r="484" spans="10:17">
       <c r="J484" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K484">
         <v>0.0859375</v>
@@ -22883,7 +22835,7 @@
     </row>
     <row r="486" spans="10:17">
       <c r="J486" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K486">
         <v>0.08458864426419467</v>
@@ -23143,7 +23095,7 @@
     </row>
     <row r="496" spans="10:17">
       <c r="J496" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K496">
         <v>0.08333333333333333</v>
@@ -23403,7 +23355,7 @@
     </row>
     <row r="506" spans="10:17">
       <c r="J506" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K506">
         <v>0.08163265306122448</v>
@@ -23429,7 +23381,7 @@
     </row>
     <row r="507" spans="10:17">
       <c r="J507" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K507">
         <v>0.08163265306122448</v>
@@ -23481,7 +23433,7 @@
     </row>
     <row r="509" spans="10:17">
       <c r="J509" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K509">
         <v>0.08064516129032258</v>
@@ -23715,7 +23667,7 @@
     </row>
     <row r="518" spans="10:17">
       <c r="J518" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K518">
         <v>0.08</v>
@@ -23793,7 +23745,7 @@
     </row>
     <row r="521" spans="10:17">
       <c r="J521" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K521">
         <v>0.07874015748031496</v>
@@ -23949,7 +23901,7 @@
     </row>
     <row r="527" spans="10:17">
       <c r="J527" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K527">
         <v>0.07692307692307693</v>
@@ -24209,7 +24161,7 @@
     </row>
     <row r="537" spans="10:17">
       <c r="J537" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K537">
         <v>0.07692307692307693</v>
@@ -24443,7 +24395,7 @@
     </row>
     <row r="546" spans="10:17">
       <c r="J546" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K546">
         <v>0.07487468671679198</v>
@@ -24547,7 +24499,7 @@
     </row>
     <row r="550" spans="10:17">
       <c r="J550" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K550">
         <v>0.07142857142857142</v>
@@ -24651,7 +24603,7 @@
     </row>
     <row r="554" spans="10:17">
       <c r="J554" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K554">
         <v>0.07142857142857142</v>
@@ -24859,7 +24811,7 @@
     </row>
     <row r="562" spans="10:17">
       <c r="J562" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K562">
         <v>0.07142857142857142</v>
@@ -25119,7 +25071,7 @@
     </row>
     <row r="572" spans="10:17">
       <c r="J572" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K572">
         <v>0.07142857142857142</v>
@@ -25353,7 +25305,7 @@
     </row>
     <row r="581" spans="10:17">
       <c r="J581" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K581">
         <v>0.06818181818181818</v>
@@ -25379,7 +25331,7 @@
     </row>
     <row r="582" spans="10:17">
       <c r="J582" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K582">
         <v>0.06818181818181818</v>
@@ -25457,7 +25409,7 @@
     </row>
     <row r="585" spans="10:17">
       <c r="J585" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K585">
         <v>0.06713780918727916</v>
@@ -25587,7 +25539,7 @@
     </row>
     <row r="590" spans="10:17">
       <c r="J590" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K590">
         <v>0.06666666666666667</v>
@@ -25717,7 +25669,7 @@
     </row>
     <row r="595" spans="10:17">
       <c r="J595" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K595">
         <v>0.06666666666666667</v>
@@ -25821,7 +25773,7 @@
     </row>
     <row r="599" spans="10:17">
       <c r="J599" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K599">
         <v>0.06666666666666667</v>
@@ -25977,7 +25929,7 @@
     </row>
     <row r="605" spans="10:17">
       <c r="J605" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K605">
         <v>0.06617647058823529</v>
@@ -26211,7 +26163,7 @@
     </row>
     <row r="614" spans="10:17">
       <c r="J614" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K614">
         <v>0.0625</v>
@@ -26237,7 +26189,7 @@
     </row>
     <row r="615" spans="10:17">
       <c r="J615" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K615">
         <v>0.0625</v>
@@ -26497,7 +26449,7 @@
     </row>
     <row r="625" spans="10:17">
       <c r="J625" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K625">
         <v>0.0625</v>
@@ -26757,7 +26709,7 @@
     </row>
     <row r="635" spans="10:17">
       <c r="J635" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K635">
         <v>0.06060606060606061</v>
@@ -26991,7 +26943,7 @@
     </row>
     <row r="644" spans="10:17">
       <c r="J644" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K644">
         <v>0.05882352941176471</v>
@@ -27043,7 +26995,7 @@
     </row>
     <row r="646" spans="10:17">
       <c r="J646" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K646">
         <v>0.05882352941176471</v>
@@ -27329,7 +27281,7 @@
     </row>
     <row r="657" spans="10:17">
       <c r="J657" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K657">
         <v>0.05882352941176471</v>
@@ -27563,7 +27515,7 @@
     </row>
     <row r="666" spans="10:17">
       <c r="J666" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K666">
         <v>0.05714285714285714</v>
@@ -27615,7 +27567,7 @@
     </row>
     <row r="668" spans="10:17">
       <c r="J668" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K668">
         <v>0.05714285714285714</v>
@@ -27719,7 +27671,7 @@
     </row>
     <row r="672" spans="10:17">
       <c r="J672" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K672">
         <v>0.05555555555555555</v>
@@ -27823,7 +27775,7 @@
     </row>
     <row r="676" spans="10:17">
       <c r="J676" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K676">
         <v>0.0552200172562554</v>
@@ -27849,7 +27801,7 @@
     </row>
     <row r="677" spans="10:17">
       <c r="J677" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K677">
         <v>0.05494505494505494</v>
@@ -27875,7 +27827,7 @@
     </row>
     <row r="678" spans="10:17">
       <c r="J678" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K678">
         <v>0.0547945205479452</v>
@@ -27901,7 +27853,7 @@
     </row>
     <row r="679" spans="10:17">
       <c r="J679" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K679">
         <v>0.0547945205479452</v>
@@ -27953,7 +27905,7 @@
     </row>
     <row r="681" spans="10:17">
       <c r="J681" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K681">
         <v>0.05454545454545454</v>
@@ -28083,7 +28035,7 @@
     </row>
     <row r="686" spans="10:17">
       <c r="J686" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K686">
         <v>0.05319148936170213</v>
@@ -28421,7 +28373,7 @@
     </row>
     <row r="699" spans="10:17">
       <c r="J699" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K699">
         <v>0.05211726384364821</v>
@@ -28473,7 +28425,7 @@
     </row>
     <row r="701" spans="10:17">
       <c r="J701" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K701">
         <v>0.05063291139240506</v>
@@ -28707,7 +28659,7 @@
     </row>
     <row r="710" spans="10:17">
       <c r="J710" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K710">
         <v>0.04938271604938271</v>
@@ -28733,7 +28685,7 @@
     </row>
     <row r="711" spans="10:17">
       <c r="J711" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K711">
         <v>0.04838709677419355</v>
@@ -29617,7 +29569,7 @@
     </row>
     <row r="745" spans="10:17">
       <c r="J745" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K745">
         <v>0.04166666666666666</v>
@@ -29799,7 +29751,7 @@
     </row>
     <row r="752" spans="10:17">
       <c r="J752" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K752">
         <v>0.0410958904109589</v>
@@ -30007,7 +29959,7 @@
     </row>
     <row r="760" spans="10:17">
       <c r="J760" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K760">
         <v>0.03846153846153846</v>
@@ -30319,7 +30271,7 @@
     </row>
     <row r="772" spans="10:17">
       <c r="J772" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K772">
         <v>0.03703703703703703</v>
@@ -30397,7 +30349,7 @@
     </row>
     <row r="775" spans="10:17">
       <c r="J775" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K775">
         <v>0.03680981595092025</v>
@@ -30475,7 +30427,7 @@
     </row>
     <row r="778" spans="10:17">
       <c r="J778" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K778">
         <v>0.03571428571428571</v>
@@ -30527,7 +30479,7 @@
     </row>
     <row r="780" spans="10:17">
       <c r="J780" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K780">
         <v>0.03571428571428571</v>
@@ -30865,7 +30817,7 @@
     </row>
     <row r="793" spans="10:17">
       <c r="J793" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K793">
         <v>0.03225806451612903</v>
@@ -31177,7 +31129,7 @@
     </row>
     <row r="805" spans="10:17">
       <c r="J805" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K805">
         <v>0.0303030303030303</v>
@@ -31411,7 +31363,7 @@
     </row>
     <row r="814" spans="10:17">
       <c r="J814" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K814">
         <v>0.02898550724637681</v>
@@ -31489,7 +31441,7 @@
     </row>
     <row r="817" spans="10:17">
       <c r="J817" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K817">
         <v>0.02857142857142857</v>
@@ -31723,7 +31675,7 @@
     </row>
     <row r="826" spans="10:17">
       <c r="J826" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K826">
         <v>0.02631578947368421</v>
@@ -32061,7 +32013,7 @@
     </row>
     <row r="839" spans="10:17">
       <c r="J839" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K839">
         <v>0.02393340270551509</v>
@@ -32087,7 +32039,7 @@
     </row>
     <row r="840" spans="10:17">
       <c r="J840" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K840">
         <v>0.02352941176470588</v>
@@ -32191,7 +32143,7 @@
     </row>
     <row r="844" spans="10:17">
       <c r="J844" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K844">
         <v>0.02228412256267409</v>
@@ -32243,7 +32195,7 @@
     </row>
     <row r="846" spans="10:17">
       <c r="J846" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K846">
         <v>0.02214022140221402</v>
@@ -32373,7 +32325,7 @@
     </row>
     <row r="851" spans="10:17">
       <c r="J851" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K851">
         <v>0.0196078431372549</v>
@@ -32399,7 +32351,7 @@
     </row>
     <row r="852" spans="10:17">
       <c r="J852" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K852">
         <v>0.01869158878504673</v>
@@ -32685,7 +32637,7 @@
     </row>
     <row r="863" spans="10:17">
       <c r="J863" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K863">
         <v>0.01351351351351351</v>
@@ -32711,7 +32663,7 @@
     </row>
     <row r="864" spans="10:17">
       <c r="J864" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K864">
         <v>0.01282051282051282</v>
@@ -32737,7 +32689,7 @@
     </row>
     <row r="865" spans="10:17">
       <c r="J865" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K865">
         <v>0.01234567901234568</v>
@@ -32841,7 +32793,7 @@
     </row>
     <row r="869" spans="10:17">
       <c r="J869" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K869">
         <v>0.0106951871657754</v>
@@ -32867,7 +32819,7 @@
     </row>
     <row r="870" spans="10:17">
       <c r="J870" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K870">
         <v>0.01030927835051546</v>
@@ -32997,7 +32949,7 @@
     </row>
     <row r="875" spans="10:17">
       <c r="J875" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K875">
         <v>0.005405405405405406</v>
